--- a/surya_etal_virus_evol_data_s2_sarbecovirus/sarbecovirus_results_bic_table.xlsx
+++ b/surya_etal_virus_evol_data_s2_sarbecovirus/sarbecovirus_results_bic_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadik\Google Drive\Operation\IZANAMI\2_publication\surya_etal_virus_evol_data_s2_sarbecovirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D08A4B-3118-4EB7-ABDF-E80D879DC3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6933CD-8A79-4A2F-BFA2-52F4855D6793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="5">
-        <v>216.16550000000001</v>
+        <v>241.15190000000001</v>
       </c>
       <c r="C2" s="6">
-        <v>-424.14240000000001</v>
+        <v>-474.14879999999999</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -455,14 +455,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>216.3843</v>
+        <v>241.3383</v>
       </c>
       <c r="C3" s="6">
-        <v>-420.4855</v>
+        <v>-470.44400000000002</v>
       </c>
       <c r="D3" s="6">
         <f>C3-C2</f>
-        <v>3.6569000000000074</v>
+        <v>3.7047999999999774</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,14 +470,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>216.43190000000001</v>
+        <v>241.40520000000001</v>
       </c>
       <c r="C4" s="6">
-        <v>-416.4864</v>
+        <v>-466.50029999999998</v>
       </c>
       <c r="D4" s="6">
         <f>C4-C2</f>
-        <v>7.6560000000000059</v>
+        <v>7.6485000000000127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,14 +485,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>216.45400000000001</v>
+        <v>241.40530000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-412.43630000000002</v>
+        <v>-462.42290000000003</v>
       </c>
       <c r="D5" s="6">
         <f>C5-C2</f>
-        <v>11.706099999999992</v>
+        <v>11.725899999999967</v>
       </c>
     </row>
   </sheetData>
